--- a/sampledata/sampleTransferJul17.xlsx
+++ b/sampledata/sampleTransferJul17.xlsx
@@ -54,16 +54,16 @@
     <t>A2</t>
   </si>
   <si>
-    <t>ssdest000000141jul16</t>
-  </si>
-  <si>
-    <t>ssdest000000141jul16b</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
     <t>L12</t>
+  </si>
+  <si>
+    <t>ssdest000000141jul17</t>
+  </si>
+  <si>
+    <t>ssdest000000141jul17_384</t>
   </si>
 </sst>
 </file>
@@ -133,8 +133,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,7 +191,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -206,6 +210,8 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -224,6 +230,8 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -556,7 +564,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -604,7 +612,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -622,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -640,10 +648,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -658,7 +666,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -675,7 +683,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -692,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/sampledata/sampleTransferJul17.xlsx
+++ b/sampledata/sampleTransferJul17.xlsx
@@ -60,10 +60,10 @@
     <t>L12</t>
   </si>
   <si>
-    <t>ssdest000000141jul17</t>
-  </si>
-  <si>
-    <t>ssdest000000141jul17_384</t>
+    <t>ssdest000000141jul17_123</t>
+  </si>
+  <si>
+    <t>ssdest000000141jul17_384_123</t>
   </si>
 </sst>
 </file>
@@ -133,8 +133,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -191,7 +195,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -212,6 +216,8 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -232,6 +238,8 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,7 +572,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
